--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/19_Bolu_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/19_Bolu_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB41D9F-F040-4D39-9C41-5CF4E2530374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87327987-E66F-4CA2-8745-05400ADEC688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{FDDF679D-A730-491B-8C1D-9D3AB43A1304}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{2E3B5E98-557B-46BC-BB83-FCEACF011F36}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FBF1C054-3BE2-43D3-AFF6-ABFEAD7A534D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0ED6BE1F-4FE3-4648-81AB-71EFE3D447EE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{C64A4F0E-6C3D-479D-970D-8C478727FAEC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C2ADE5DA-F780-4E2B-A6B8-98DC3CF0AEDA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2513E65B-5E2C-45B7-A0D7-9D6635E6593C}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{727AA8C2-B59C-4942-AE9C-9A6BAA34811E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{7849B726-E840-4976-8989-CB689E75560C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F19772AC-A73E-415B-839C-998A61702F58}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9A90F341-8795-4D51-95AD-0843E20C0DE7}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{317EF0E6-21AA-4AD6-B073-DDD17D6E32C5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7FA4B97D-ED08-49A1-86A4-B77463BBA9F0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{FBAA3FAC-B8B2-467C-B398-086944E66D45}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{70563226-86B8-4701-BBB7-6A6FA92444F5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{14615636-13B2-4D0E-B2D2-3255D14E6AA7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3803B3-FB0F-4605-A51F-1C97781FF2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902EE6D-E348-4EF3-99D9-123107776209}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2430,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B1088D-BA36-444C-8BFE-84616CDEC273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34048178-97DB-46FE-A6FE-FC43EE4E934C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3691,7 +3691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCD0928-C100-4123-A22F-6C77754E0702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24C8CCE-C4AF-4930-B828-6EAB1AE92B12}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4952,7 +4952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284DF4A9-2DC2-490E-8A1A-28C0D69CCDF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C8A746-8BF3-47A5-B421-8EBAA3F1A8EB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6201,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D9F0B8-3002-4024-BB07-5B73710C5E6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FD86B0-AB81-4895-8F28-4468E34F4F30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7436,7 +7436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CB2A39-5D4D-414D-887D-CF0CA4106732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F01FDA-1298-429C-B5F7-1AFBEB363008}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
